--- a/qol.xlsx
+++ b/qol.xlsx
@@ -2,68 +2,146 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/da_p.pkl/Library/Containers/net.whatsapp.WhatsApp/Data/tmp/documents/E2E86D24-24AD-48DD-ABDA-A958FFAA4996/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaackaiyuilee/Desktop/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640F1F29-3155-3842-8C1C-4C2B81A6F244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1577577-4FAD-0A4D-96B7-66A88B3DD1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="4500" windowWidth="25640" windowHeight="14440" xr2:uid="{E2E92AA1-2AFC-4249-A5E1-0B184ED55BDA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="56">
   <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>World</t>
   </si>
   <si>
+    <t>Life expectancy at birth, total (years)</t>
+  </si>
+  <si>
+    <t>PM2.5 air pollution, mean annual exposure (micrograms per cubic meter)</t>
+  </si>
+  <si>
+    <t>World medium voter turnout in election</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Indicator Name</t>
+  </si>
+  <si>
+    <t>Indicator Code</t>
+  </si>
+  <si>
     <t>WLD</t>
   </si>
   <si>
@@ -73,144 +151,30 @@
     <t>SE.PRM.CMPT.ZS</t>
   </si>
   <si>
-    <t>Country Name</t>
-  </si>
-  <si>
-    <t>Country Code</t>
-  </si>
-  <si>
-    <t>Indicator Name</t>
-  </si>
-  <si>
-    <t>Indicator Code</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>SP.DYN.IMRT.IN</t>
   </si>
   <si>
-    <t>Life expectancy at birth, total (years)</t>
-  </si>
-  <si>
     <t>SP.DYN.LE00.IN</t>
   </si>
   <si>
     <t>Literacy rate (%)</t>
   </si>
   <si>
+    <t>Time required to get electricity (days)</t>
+  </si>
+  <si>
+    <t>IC.ELC.TIME</t>
+  </si>
+  <si>
     <t>..</t>
   </si>
   <si>
-    <t>Time required to get electricity (days)</t>
-  </si>
-  <si>
-    <t>IC.ELC.TIME</t>
-  </si>
-  <si>
     <t>Individuals using the Internet (% of population)</t>
   </si>
   <si>
     <t>IT.NET.USER.ZS</t>
   </si>
   <si>
-    <t>PM2.5 air pollution, mean annual exposure (micrograms per cubic meter)</t>
-  </si>
-  <si>
     <t>EN.ATM.PM25.MC.M3</t>
   </si>
   <si>
@@ -224,20 +188,17 @@
   </si>
   <si>
     <t>SI.POV.SOPO</t>
-  </si>
-  <si>
-    <t>World medium voter turnout in election</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -246,19 +207,6 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -281,9 +229,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -291,7 +238,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -314,44 +261,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -378,32 +325,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -430,24 +359,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,298 +370,298 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE0626F-94AF-3941-B404-5A188CE07E50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>79.957626342773395</v>
@@ -848,16 +759,16 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>62</v>
@@ -952,16 +863,16 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>65.755042835845856</v>
@@ -1056,168 +967,168 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="2">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1">
         <v>76.102000000000004</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>76.501000000000005</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>76.912000000000006</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>77.296000000000006</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>79.287999999999997</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>80.468999999999994</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>80.805999999999997</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>80.978999999999999</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>81.286000000000001</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>81.64</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>82.114000000000004</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>82.447000000000003</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>82.454999999999998</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>82.424999999999997</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>83.012</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>83.385999999999996</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>83.608999999999995</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>84.227000000000004</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>84.411000000000001</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>84.600999999999999</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>84.903000000000006</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>85.286000000000001</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>85.679000000000002</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>86</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="1">
         <v>86.177000000000007</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="1">
         <v>86.436999999999998</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="1">
         <v>86.548000000000002</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="1">
         <v>86.747</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5" s="1">
         <v>86.927999999999997</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AH5" s="1">
         <v>87.155000000000001</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AI5" s="1">
         <v>87.355999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="U6">
         <v>113.71511627906976</v>
@@ -1253,30 +1164,30 @@
         <v>82.50336898395723</v>
       </c>
       <c r="AF6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AG6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AH6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0.1790066795612269</v>
@@ -1374,16 +1285,16 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>38.936922256045257</v>
@@ -1472,79 +1383,79 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="S9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="T9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="U9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="W9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="X9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Y9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Z9">
         <v>3855.5708672993997</v>
@@ -1571,24 +1482,24 @@
         <v>3948.717919905901</v>
       </c>
       <c r="AH9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AI9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>45.1</v>
@@ -1683,13 +1594,13 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>78.2</v>
@@ -1777,553 +1688,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42358A6D-667C-B14E-A431-F9C71A930A88}">
-  <dimension ref="A1:AH31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:AH4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
-        <v>1993</v>
-      </c>
-      <c r="B1" s="2">
-        <v>76.102000000000004</v>
-      </c>
-      <c r="D1" cm="1">
-        <f t="array" ref="D1:AH1">TRANSPOSE(B1:B31)</f>
-        <v>76.102000000000004</v>
-      </c>
-      <c r="E1">
-        <v>76.501000000000005</v>
-      </c>
-      <c r="F1">
-        <v>76.912000000000006</v>
-      </c>
-      <c r="G1">
-        <v>77.296000000000006</v>
-      </c>
-      <c r="H1">
-        <v>79.287999999999997</v>
-      </c>
-      <c r="I1">
-        <v>80.468999999999994</v>
-      </c>
-      <c r="J1">
-        <v>80.805999999999997</v>
-      </c>
-      <c r="K1">
-        <v>80.978999999999999</v>
-      </c>
-      <c r="L1">
-        <v>81.286000000000001</v>
-      </c>
-      <c r="M1">
-        <v>81.64</v>
-      </c>
-      <c r="N1">
-        <v>82.114000000000004</v>
-      </c>
-      <c r="O1">
-        <v>82.447000000000003</v>
-      </c>
-      <c r="P1">
-        <v>82.454999999999998</v>
-      </c>
-      <c r="Q1">
-        <v>82.424999999999997</v>
-      </c>
-      <c r="R1">
-        <v>83.012</v>
-      </c>
-      <c r="S1">
-        <v>83.385999999999996</v>
-      </c>
-      <c r="T1">
-        <v>83.608999999999995</v>
-      </c>
-      <c r="U1">
-        <v>84.227000000000004</v>
-      </c>
-      <c r="V1">
-        <v>84.411000000000001</v>
-      </c>
-      <c r="W1">
-        <v>84.600999999999999</v>
-      </c>
-      <c r="X1">
-        <v>84.903000000000006</v>
-      </c>
-      <c r="Y1">
-        <v>85.286000000000001</v>
-      </c>
-      <c r="Z1">
-        <v>85.679000000000002</v>
-      </c>
-      <c r="AA1">
-        <v>86</v>
-      </c>
-      <c r="AB1">
-        <v>86.177000000000007</v>
-      </c>
-      <c r="AC1">
-        <v>86.436999999999998</v>
-      </c>
-      <c r="AD1">
-        <v>86.548000000000002</v>
-      </c>
-      <c r="AE1">
-        <v>86.747</v>
-      </c>
-      <c r="AF1">
-        <v>86.927999999999997</v>
-      </c>
-      <c r="AG1">
-        <v>87.155000000000001</v>
-      </c>
-      <c r="AH1">
-        <v>87.355999999999995</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1994</v>
-      </c>
-      <c r="B2" s="2">
-        <v>76.501000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1995</v>
-      </c>
-      <c r="B3" s="2">
-        <v>76.912000000000006</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1993</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1994</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1995</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1996</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1997</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1998</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1999</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2001</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2002</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2003</v>
-      </c>
-      <c r="O3" s="1">
-        <v>2004</v>
-      </c>
-      <c r="P3" s="1">
-        <v>2005</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>2006</v>
-      </c>
-      <c r="R3" s="1">
-        <v>2007</v>
-      </c>
-      <c r="S3" s="1">
-        <v>2008</v>
-      </c>
-      <c r="T3" s="1">
-        <v>2009</v>
-      </c>
-      <c r="U3" s="1">
-        <v>2010</v>
-      </c>
-      <c r="V3" s="1">
-        <v>2011</v>
-      </c>
-      <c r="W3" s="1">
-        <v>2012</v>
-      </c>
-      <c r="X3" s="1">
-        <v>2013</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>2014</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>2015</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>2016</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>2017</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>2018</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>2019</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>2020</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>2021</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>2022</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1996</v>
-      </c>
-      <c r="B4" s="2">
-        <v>77.296000000000006</v>
-      </c>
-      <c r="D4" s="2">
-        <v>76.102000000000004</v>
-      </c>
-      <c r="E4" s="2">
-        <v>76.501000000000005</v>
-      </c>
-      <c r="F4" s="2">
-        <v>76.912000000000006</v>
-      </c>
-      <c r="G4" s="2">
-        <v>77.296000000000006</v>
-      </c>
-      <c r="H4" s="2">
-        <v>79.287999999999997</v>
-      </c>
-      <c r="I4" s="2">
-        <v>80.468999999999994</v>
-      </c>
-      <c r="J4" s="2">
-        <v>80.805999999999997</v>
-      </c>
-      <c r="K4" s="2">
-        <v>80.978999999999999</v>
-      </c>
-      <c r="L4" s="2">
-        <v>81.286000000000001</v>
-      </c>
-      <c r="M4" s="2">
-        <v>81.64</v>
-      </c>
-      <c r="N4" s="2">
-        <v>82.114000000000004</v>
-      </c>
-      <c r="O4" s="2">
-        <v>82.447000000000003</v>
-      </c>
-      <c r="P4" s="2">
-        <v>82.454999999999998</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>82.424999999999997</v>
-      </c>
-      <c r="R4" s="2">
-        <v>83.012</v>
-      </c>
-      <c r="S4" s="2">
-        <v>83.385999999999996</v>
-      </c>
-      <c r="T4" s="2">
-        <v>83.608999999999995</v>
-      </c>
-      <c r="U4" s="2">
-        <v>84.227000000000004</v>
-      </c>
-      <c r="V4" s="2">
-        <v>84.411000000000001</v>
-      </c>
-      <c r="W4" s="2">
-        <v>84.600999999999999</v>
-      </c>
-      <c r="X4" s="2">
-        <v>84.903000000000006</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>85.286000000000001</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>85.679000000000002</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>86</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>86.177000000000007</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>86.436999999999998</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>86.548000000000002</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>86.747</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>86.927999999999997</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>87.155000000000001</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>87.355999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1997</v>
-      </c>
-      <c r="B5" s="2">
-        <v>79.287999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>1998</v>
-      </c>
-      <c r="B6" s="2">
-        <v>80.468999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>1999</v>
-      </c>
-      <c r="B7" s="2">
-        <v>80.805999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B8" s="2">
-        <v>80.978999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>2001</v>
-      </c>
-      <c r="B9" s="2">
-        <v>81.286000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>2002</v>
-      </c>
-      <c r="B10" s="2">
-        <v>81.64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B11" s="2">
-        <v>82.114000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B12" s="2">
-        <v>82.447000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B13" s="2">
-        <v>82.454999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B14" s="2">
-        <v>82.424999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B15" s="2">
-        <v>83.012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B16" s="2">
-        <v>83.385999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B17" s="2">
-        <v>83.608999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B18" s="2">
-        <v>84.227000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B19" s="2">
-        <v>84.411000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B20" s="2">
-        <v>84.600999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B21" s="2">
-        <v>84.903000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B22" s="2">
-        <v>85.286000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B23" s="2">
-        <v>85.679000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B24" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B25" s="2">
-        <v>86.177000000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="2">
-        <v>86.436999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B27" s="2">
-        <v>86.548000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B28" s="2">
-        <v>86.747</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B29" s="2">
-        <v>86.927999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B30" s="2">
-        <v>87.155000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>2023</v>
-      </c>
-      <c r="B31" s="2">
-        <v>87.355999999999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B31">
-    <sortCondition ref="A1:A31"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>